--- a/data/Subtyping_Metrics_Acc_F1.xlsx
+++ b/data/Subtyping_Metrics_Acc_F1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduate Internship\Code\Comparison\RERUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC034EAC-5EC8-4A6D-AE04-F38F8B634704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47009B-F8E9-40EB-8F74-2587AC73C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch (64D)" sheetId="1" r:id="rId1"/>
@@ -9740,8 +9740,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5553076" y="109537"/>
-              <a:ext cx="2790824" cy="3843338"/>
+              <a:off x="5697856" y="109537"/>
+              <a:ext cx="2811779" cy="3690938"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9760,7 +9760,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -9823,8 +9823,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924551" y="109537"/>
-              <a:ext cx="2790824" cy="3843338"/>
+              <a:off x="6078856" y="109537"/>
+              <a:ext cx="2811779" cy="3690938"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9843,7 +9843,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -9906,8 +9906,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924551" y="109537"/>
-              <a:ext cx="2790824" cy="3843338"/>
+              <a:off x="6078856" y="109537"/>
+              <a:ext cx="2811779" cy="3690938"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9926,7 +9926,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -9989,8 +9989,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924551" y="109537"/>
-              <a:ext cx="2790824" cy="3843338"/>
+              <a:off x="6078856" y="109537"/>
+              <a:ext cx="2811779" cy="3690938"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10009,7 +10009,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10072,8 +10072,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5924551" y="109537"/>
-              <a:ext cx="2790824" cy="3843338"/>
+              <a:off x="6078856" y="109537"/>
+              <a:ext cx="2811779" cy="3690938"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10092,7 +10092,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10155,8 +10155,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6953249" y="1900235"/>
-              <a:ext cx="8687859" cy="5476348"/>
+              <a:off x="7132319" y="1831655"/>
+              <a:ext cx="8887884" cy="5255368"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10175,7 +10175,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -10748,16 +10748,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>89.661237623762375</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>88.776138613861377</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>57.925148514851493</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>84.531138613861387</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>90.273613861386139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>88.046782178217825</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L12">
         <v>92.86</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>85.794257425742572</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>89.661237623762375</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>88.776138613861377</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L15">
         <v>1</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>57.925148514851493</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L16">
         <v>85.71</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>86.752277227722772</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L17">
         <v>97.62</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>88.709504950495045</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.95269999999999999</v>
       </c>
@@ -11164,53 +11164,53 @@
         <v>81.210247524752475</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.96930000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.98070000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.95320000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.97050000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.97509999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.97489999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.93489999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <f>AVERAGE(A18:A26)</f>
         <v>0.96401111111111126</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>_xlfn.STDEV.P(A18:A26)</f>
         <v>1.3674911695383757E-2</v>
@@ -11235,16 +11235,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>86.14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>80.69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>74.260000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11463,7 +11463,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11480,12 +11480,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>78.910999999999987</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -11537,16 +11537,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11571,7 +11571,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11782,12 +11782,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -11839,16 +11839,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>78.709999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>79.209999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -12084,12 +12084,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>80.296999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -12141,16 +12141,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>77.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>87.62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -12369,7 +12369,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -12386,12 +12386,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>82.722000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -12443,21 +12443,21 @@
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>81.680000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>81.19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>78.709999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>76.73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>81.680000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>81.19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>78.709999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>86.14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>80.69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>74.260000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>76.239999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>86.63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>81.680000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>89.11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>82.67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>82.18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>81.19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>78.709999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>79.209999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>83.66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>76.73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>77.72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>87.62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>85.64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>86.14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -13189,17 +13189,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -13345,17 +13345,17 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13377,17 +13377,17 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>85.19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>84.71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -13575,17 +13575,17 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13604,25 +13604,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691E61EB-A003-4472-8A32-512ECA90D1AC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>5.3217271249804418E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>3.3302377134694749E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>2.9617530758543884E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>97</v>
       </c>
@@ -13917,12 +13917,12 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
